--- a/BankAnalyticData.xlsx
+++ b/BankAnalyticData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="570" windowWidth="28455" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="20085" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="Bankdata" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="935">
   <si>
     <t>customerNumber</t>
   </si>
@@ -184,123 +185,21 @@
     <t>Can we deliver the new Ford Mustang models by end-of-quarter?</t>
   </si>
   <si>
-    <t>La Rochelle Gifts</t>
-  </si>
-  <si>
-    <t>Labrune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janine </t>
-  </si>
-  <si>
-    <t>40.67.8555</t>
-  </si>
-  <si>
-    <t>67, rue des Cinquante Otages</t>
-  </si>
-  <si>
-    <t>NG94694</t>
-  </si>
-  <si>
     <t>In Process</t>
   </si>
   <si>
-    <t>Baane Mini Imports</t>
-  </si>
-  <si>
-    <t>Bergulfsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonas </t>
-  </si>
-  <si>
-    <t>07-98 9555</t>
-  </si>
-  <si>
-    <t>Erling Skakkes gate 78</t>
-  </si>
-  <si>
-    <t>Stavern</t>
-  </si>
-  <si>
-    <t>4110</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>MA302151</t>
-  </si>
-  <si>
-    <t>Mini Gifts Distributors Ltd.</t>
-  </si>
-  <si>
     <t>Nelson</t>
   </si>
   <si>
-    <t>Susan</t>
-  </si>
-  <si>
-    <t>4155551450</t>
-  </si>
-  <si>
-    <t>5677 Strong St.</t>
-  </si>
-  <si>
-    <t>San Rafael</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
     <t>97562</t>
   </si>
   <si>
-    <t>NT141748</t>
-  </si>
-  <si>
     <t>Custom shipping instructions were sent to warehouse</t>
   </si>
   <si>
-    <t>Havel &amp; Zbyszek Co</t>
-  </si>
-  <si>
-    <t>Piestrzeniewicz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zbyszek </t>
-  </si>
-  <si>
-    <t>(26) 642-7555</t>
-  </si>
-  <si>
-    <t>ul. Filtrowa 68</t>
-  </si>
-  <si>
-    <t>Warszawa</t>
-  </si>
-  <si>
-    <t>01-012</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Blauer See Auto, Co.</t>
-  </si>
-  <si>
-    <t>Keitel</t>
-  </si>
-  <si>
-    <t>Roland</t>
-  </si>
-  <si>
-    <t>+49 69 66 90 2555</t>
-  </si>
-  <si>
-    <t>Lyonerstr. 34</t>
-  </si>
-  <si>
     <t>Frankfurt</t>
   </si>
   <si>
@@ -310,48 +209,18 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>IP383901</t>
-  </si>
-  <si>
-    <t>Mini Wheels Co.</t>
-  </si>
-  <si>
     <t>Murphy</t>
   </si>
   <si>
     <t>Julie</t>
   </si>
   <si>
-    <t>6505555787</t>
-  </si>
-  <si>
-    <t>5557 North Pendale Street</t>
-  </si>
-  <si>
     <t>San Francisco</t>
   </si>
   <si>
     <t>94217</t>
   </si>
   <si>
-    <t>PI42991</t>
-  </si>
-  <si>
-    <t>Land of Toys Inc.</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Kwai</t>
-  </si>
-  <si>
-    <t>2125557818</t>
-  </si>
-  <si>
-    <t>897 Long Airport Avenue</t>
-  </si>
-  <si>
     <t>NYC</t>
   </si>
   <si>
@@ -361,34 +230,10 @@
     <t>10022</t>
   </si>
   <si>
-    <t>NB445135</t>
-  </si>
-  <si>
-    <t>Euro+ Shopping Channel</t>
-  </si>
-  <si>
-    <t>Freyre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego </t>
-  </si>
-  <si>
-    <t>(91) 555 94 44</t>
-  </si>
-  <si>
-    <t>C/ Moralzarzal, 86</t>
-  </si>
-  <si>
     <t>Madrid</t>
   </si>
   <si>
-    <t>28034</t>
-  </si>
-  <si>
     <t>Spain</t>
-  </si>
-  <si>
-    <t>NU627706</t>
   </si>
   <si>
     <t>Volvo Model Replicas, Co</t>
@@ -3313,7 +3158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3323,7 +3170,7 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>986</v>
+        <v>934</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3620,68 +3467,32 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>119</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1370</v>
-      </c>
-      <c r="N5" s="1">
-        <v>118200</v>
-      </c>
-      <c r="O5" s="1">
-        <v>119</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>38405</v>
-      </c>
-      <c r="R5" s="1">
-        <v>49523.67</v>
-      </c>
-      <c r="S5" s="1">
-        <v>10425</v>
-      </c>
-      <c r="T5" s="2">
-        <v>38503</v>
-      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="2"/>
       <c r="U5" s="2">
         <v>38510</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1">
@@ -3689,62 +3500,26 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>121</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1504</v>
-      </c>
-      <c r="N6" s="1">
-        <v>81700</v>
-      </c>
-      <c r="O6" s="1">
-        <v>121</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>38319</v>
-      </c>
-      <c r="R6" s="1">
-        <v>34638.14</v>
-      </c>
-      <c r="S6" s="1">
-        <v>10325</v>
-      </c>
-      <c r="T6" s="2">
-        <v>38296</v>
-      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="2"/>
       <c r="U6" s="2">
         <v>38304</v>
       </c>
@@ -3760,126 +3535,60 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>124</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1165</v>
-      </c>
-      <c r="N7" s="1">
-        <v>210500</v>
-      </c>
-      <c r="O7" s="1">
-        <v>124</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>37950</v>
-      </c>
-      <c r="R7" s="1">
-        <v>45084.38</v>
-      </c>
-      <c r="S7" s="1">
-        <v>10421</v>
-      </c>
-      <c r="T7" s="2">
-        <v>38501</v>
-      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2"/>
       <c r="U7" s="2">
         <v>38509</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="Y7" s="1">
         <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>125</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -3890,62 +3599,26 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>128</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1504</v>
-      </c>
-      <c r="N9" s="1">
-        <v>59700</v>
-      </c>
-      <c r="O9" s="1">
-        <v>128</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>38309</v>
-      </c>
-      <c r="R9" s="1">
-        <v>7466.32</v>
-      </c>
-      <c r="S9" s="1">
-        <v>10323</v>
-      </c>
-      <c r="T9" s="2">
-        <v>38296</v>
-      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="2"/>
       <c r="U9" s="2">
         <v>38303</v>
       </c>
@@ -3961,64 +3634,26 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>129</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1165</v>
-      </c>
-      <c r="N10" s="1">
-        <v>64600</v>
-      </c>
-      <c r="O10" s="1">
-        <v>129</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>37720</v>
-      </c>
-      <c r="R10" s="1">
-        <v>16537.849999999999</v>
-      </c>
-      <c r="S10" s="1">
-        <v>10333</v>
-      </c>
-      <c r="T10" s="2">
-        <v>38309</v>
-      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="2"/>
       <c r="U10" s="2">
         <v>38318</v>
       </c>
@@ -4034,64 +3669,26 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>131</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1323</v>
-      </c>
-      <c r="N11" s="1">
-        <v>114900</v>
-      </c>
-      <c r="O11" s="1">
-        <v>131</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>38241</v>
-      </c>
-      <c r="R11" s="1">
-        <v>35321.97</v>
-      </c>
-      <c r="S11" s="1">
-        <v>10329</v>
-      </c>
-      <c r="T11" s="2">
-        <v>38306</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="2"/>
       <c r="U11" s="2">
         <v>38315</v>
       </c>
@@ -4107,68 +3704,32 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>141</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1370</v>
-      </c>
-      <c r="N12" s="1">
-        <v>227600</v>
-      </c>
-      <c r="O12" s="1">
-        <v>141</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>38124</v>
-      </c>
-      <c r="R12" s="1">
-        <v>26155.91</v>
-      </c>
-      <c r="S12" s="1">
-        <v>10424</v>
-      </c>
-      <c r="T12" s="2">
-        <v>38503</v>
-      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="2"/>
       <c r="U12" s="2">
         <v>38511</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1">
@@ -4183,30 +3744,30 @@
         <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="M13" s="1">
         <v>1504</v>
@@ -4218,7 +3779,7 @@
         <v>144</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2">
         <v>37720</v>
@@ -4237,10 +3798,10 @@
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="Y13" s="1">
         <v>144</v>
@@ -4254,30 +3815,30 @@
         <v>145</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1">
         <v>1401</v>
@@ -4289,7 +3850,7 @@
         <v>145</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="2">
         <v>37672</v>
@@ -4310,10 +3871,10 @@
         <v>38463</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="Y14" s="1">
         <v>145</v>
@@ -4327,27 +3888,27 @@
         <v>146</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>31</v>
@@ -4362,7 +3923,7 @@
         <v>146</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="2">
         <v>37965</v>
@@ -4398,32 +3959,32 @@
         <v>148</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="M16" s="1">
         <v>1621</v>
@@ -4435,7 +3996,7 @@
         <v>148</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="2">
         <v>38438</v>
@@ -4459,7 +4020,7 @@
         <v>33</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="Y16" s="1">
         <v>148</v>
@@ -4473,31 +4034,31 @@
         <v>151</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>42</v>
@@ -4512,7 +4073,7 @@
         <v>151</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="2">
         <v>38335</v>
@@ -4548,29 +4109,29 @@
         <v>157</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>42</v>
@@ -4585,7 +4146,7 @@
         <v>157</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="2">
         <v>38237</v>
@@ -4604,7 +4165,7 @@
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1">
@@ -4619,29 +4180,29 @@
         <v>161</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>42</v>
@@ -4656,7 +4217,7 @@
         <v>161</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="2">
         <v>37838</v>
@@ -4692,32 +4253,32 @@
         <v>166</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="M20" s="1">
         <v>1612</v>
@@ -4729,7 +4290,7 @@
         <v>166</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="2">
         <v>38045</v>
@@ -4765,32 +4326,32 @@
         <v>167</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="M21" s="1">
         <v>1504</v>
@@ -4802,7 +4363,7 @@
         <v>167</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="Q21" s="2">
         <v>37958</v>
@@ -4826,7 +4387,7 @@
         <v>33</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="Y21" s="1">
         <v>167</v>
@@ -4840,31 +4401,31 @@
         <v>168</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>42</v>
@@ -4903,30 +4464,30 @@
         <v>169</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1">
@@ -4960,27 +4521,27 @@
         <v>171</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>31</v>
@@ -4995,7 +4556,7 @@
         <v>171</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="2">
         <v>37947</v>
@@ -5019,7 +4580,7 @@
         <v>33</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="Y24" s="1">
         <v>171</v>
@@ -5033,27 +4594,27 @@
         <v>172</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>31</v>
@@ -5068,7 +4629,7 @@
         <v>172</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="2">
         <v>37731</v>
@@ -5092,7 +4653,7 @@
         <v>33</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="Y25" s="1">
         <v>172</v>
@@ -5106,29 +4667,29 @@
         <v>173</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>42</v>
@@ -5143,7 +4704,7 @@
         <v>173</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="2">
         <v>38075</v>
@@ -5181,29 +4742,29 @@
         <v>175</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>42</v>
@@ -5218,7 +4779,7 @@
         <v>175</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="Q27" s="2">
         <v>38178</v>
@@ -5242,7 +4803,7 @@
         <v>33</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="Y27" s="1">
         <v>175</v>
@@ -5256,32 +4817,32 @@
         <v>177</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="M28" s="1">
         <v>1621</v>
@@ -5293,7 +4854,7 @@
         <v>177</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="2">
         <v>38005</v>
@@ -5329,31 +4890,31 @@
         <v>181</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>42</v>
@@ -5368,7 +4929,7 @@
         <v>181</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="2">
         <v>38307</v>
@@ -5404,30 +4965,30 @@
         <v>186</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="M30" s="1">
         <v>1501</v>
@@ -5439,7 +5000,7 @@
         <v>186</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="Q30" s="2">
         <v>38281</v>
@@ -5463,7 +5024,7 @@
         <v>33</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="Y30" s="1">
         <v>186</v>
@@ -5477,30 +5038,30 @@
         <v>187</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="M31" s="1">
         <v>1501</v>
@@ -5512,7 +5073,7 @@
         <v>187</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="Q31" s="2">
         <v>37707</v>
@@ -5548,32 +5109,32 @@
         <v>189</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="M32" s="1">
         <v>1504</v>
@@ -5585,7 +5146,7 @@
         <v>189</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="Q32" s="2">
         <v>38047</v>
@@ -5609,7 +5170,7 @@
         <v>33</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="Y32" s="1">
         <v>189</v>
@@ -5623,29 +5184,29 @@
         <v>198</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>42</v>
@@ -5660,7 +5221,7 @@
         <v>198</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="Q33" s="2">
         <v>38251</v>
@@ -5696,30 +5257,30 @@
         <v>201</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="M34" s="1">
         <v>1501</v>
@@ -5731,7 +5292,7 @@
         <v>201</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="Q34" s="2">
         <v>38153</v>
@@ -5767,32 +5328,32 @@
         <v>202</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="M35" s="1">
         <v>1323</v>
@@ -5804,7 +5365,7 @@
         <v>202</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="Q35" s="2">
         <v>38299</v>
@@ -5828,7 +5389,7 @@
         <v>33</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="Y35" s="1">
         <v>202</v>
@@ -5842,29 +5403,29 @@
         <v>204</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>42</v>
@@ -5879,7 +5440,7 @@
         <v>204</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="Q36" s="2">
         <v>38254</v>
@@ -5915,29 +5476,29 @@
         <v>205</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>42</v>
@@ -5952,7 +5513,7 @@
         <v>205</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="Q37" s="2">
         <v>38389</v>
@@ -5973,10 +5534,10 @@
         <v>38368</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="Y37" s="1">
         <v>205</v>
@@ -5990,32 +5551,32 @@
         <v>206</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1">
@@ -6049,27 +5610,27 @@
         <v>209</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>31</v>
@@ -6084,7 +5645,7 @@
         <v>209</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="Q39" s="2">
         <v>38111</v>
@@ -6120,30 +5681,30 @@
         <v>211</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="M40" s="1">
         <v>1621</v>
@@ -6155,7 +5716,7 @@
         <v>211</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="Q40" s="2">
         <v>37964</v>
@@ -6191,30 +5752,30 @@
         <v>216</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="M41" s="1">
         <v>1702</v>
@@ -6226,7 +5787,7 @@
         <v>216</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="Q41" s="2">
         <v>37969</v>
@@ -6250,7 +5811,7 @@
         <v>33</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="Y41" s="1">
         <v>216</v>
@@ -6264,29 +5825,29 @@
         <v>219</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>42</v>
@@ -6301,7 +5862,7 @@
         <v>219</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="Q42" s="2">
         <v>37912</v>
@@ -6337,30 +5898,30 @@
         <v>223</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>385</v>
+        <v>333</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1">
@@ -6394,30 +5955,30 @@
         <v>227</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="M44" s="1">
         <v>1401</v>
@@ -6429,7 +5990,7 @@
         <v>227</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="Q44" s="2">
         <v>38293</v>
@@ -6465,32 +6026,32 @@
         <v>233</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="M45" s="1">
         <v>1286</v>
@@ -6502,7 +6063,7 @@
         <v>233</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="Q45" s="2">
         <v>37943</v>
@@ -6538,30 +6099,30 @@
         <v>237</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1">
@@ -6595,29 +6156,29 @@
         <v>239</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>42</v>
@@ -6632,7 +6193,7 @@
         <v>239</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="Q47" s="2">
         <v>38061</v>
@@ -6668,34 +6229,34 @@
         <v>240</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="M48" s="1">
         <v>1501</v>
@@ -6707,7 +6268,7 @@
         <v>240</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="Q48" s="2">
         <v>38074</v>
@@ -6731,7 +6292,7 @@
         <v>33</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="Y48" s="1">
         <v>240</v>
@@ -6745,27 +6306,27 @@
         <v>242</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>31</v>
@@ -6780,7 +6341,7 @@
         <v>242</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="Q49" s="2">
         <v>37823</v>
@@ -6816,30 +6377,30 @@
         <v>247</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1">
@@ -6873,30 +6434,30 @@
         <v>249</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="M51" s="1">
         <v>1401</v>
@@ -6908,7 +6469,7 @@
         <v>249</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="Q51" s="2">
         <v>38234</v>
@@ -6944,27 +6505,27 @@
         <v>250</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>454</v>
+        <v>402</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>455</v>
+        <v>403</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>31</v>
@@ -6979,7 +6540,7 @@
         <v>250</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="Q52" s="2">
         <v>37820</v>
@@ -7003,7 +6564,7 @@
         <v>33</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="Y52" s="1">
         <v>250</v>
@@ -7017,27 +6578,27 @@
         <v>256</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>461</v>
+        <v>409</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>31</v>
@@ -7052,7 +6613,7 @@
         <v>256</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="Q53" s="2">
         <v>38282</v>
@@ -7088,30 +6649,30 @@
         <v>259</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>469</v>
+        <v>417</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>471</v>
+        <v>419</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>472</v>
+        <v>420</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>473</v>
+        <v>421</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>474</v>
+        <v>422</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M54" s="1">
         <v>1504</v>
@@ -7123,7 +6684,7 @@
         <v>259</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="Q54" s="2">
         <v>37962</v>
@@ -7159,32 +6720,32 @@
         <v>260</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>477</v>
+        <v>425</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>478</v>
+        <v>426</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>479</v>
+        <v>427</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>480</v>
+        <v>428</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>481</v>
+        <v>429</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>482</v>
+        <v>430</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="M55" s="1">
         <v>1323</v>
@@ -7196,7 +6757,7 @@
         <v>260</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>483</v>
+        <v>431</v>
       </c>
       <c r="Q55" s="2">
         <v>38101</v>
@@ -7232,30 +6793,30 @@
         <v>273</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>485</v>
+        <v>433</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>487</v>
+        <v>435</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>488</v>
+        <v>436</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
-        <v>490</v>
+        <v>438</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1">
@@ -7289,31 +6850,31 @@
         <v>276</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>492</v>
+        <v>440</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>493</v>
+        <v>441</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>494</v>
+        <v>442</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>495</v>
+        <v>443</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>496</v>
+        <v>444</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>497</v>
+        <v>445</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>498</v>
+        <v>446</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>499</v>
+        <v>447</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>53</v>
@@ -7328,7 +6889,7 @@
         <v>276</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>500</v>
+        <v>448</v>
       </c>
       <c r="Q57" s="2">
         <v>38472</v>
@@ -7364,30 +6925,30 @@
         <v>278</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>501</v>
+        <v>449</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>502</v>
+        <v>450</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>504</v>
+        <v>452</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>505</v>
+        <v>453</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>506</v>
+        <v>454</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="M58" s="1">
         <v>1401</v>
@@ -7399,7 +6960,7 @@
         <v>278</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="Q58" s="2">
         <v>37949</v>
@@ -7423,7 +6984,7 @@
         <v>33</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>509</v>
+        <v>457</v>
       </c>
       <c r="Y58" s="1">
         <v>278</v>
@@ -7437,31 +6998,31 @@
         <v>282</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>510</v>
+        <v>458</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>511</v>
+        <v>459</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>512</v>
+        <v>460</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>513</v>
+        <v>461</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>514</v>
+        <v>462</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>515</v>
+        <v>463</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>516</v>
+        <v>464</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>498</v>
+        <v>446</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>517</v>
+        <v>465</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>53</v>
@@ -7476,7 +7037,7 @@
         <v>282</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>518</v>
+        <v>466</v>
       </c>
       <c r="Q59" s="2">
         <v>38355</v>
@@ -7495,7 +7056,7 @@
       </c>
       <c r="V59" s="1"/>
       <c r="W59" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="X59" s="1"/>
       <c r="Y59" s="1">
@@ -7510,29 +7071,29 @@
         <v>286</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>520</v>
+        <v>468</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>521</v>
+        <v>469</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>522</v>
+        <v>470</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>523</v>
+        <v>471</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>42</v>
@@ -7547,7 +7108,7 @@
         <v>286</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>524</v>
+        <v>472</v>
       </c>
       <c r="Q60" s="2">
         <v>38235</v>
@@ -7571,7 +7132,7 @@
         <v>33</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>525</v>
+        <v>473</v>
       </c>
       <c r="Y60" s="1">
         <v>286</v>
@@ -7585,30 +7146,30 @@
         <v>293</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>527</v>
+        <v>475</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>528</v>
+        <v>476</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>529</v>
+        <v>477</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>531</v>
+        <v>479</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>532</v>
+        <v>480</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1">
@@ -7642,30 +7203,30 @@
         <v>298</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>534</v>
+        <v>482</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>535</v>
+        <v>483</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>536</v>
+        <v>484</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>537</v>
+        <v>485</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>538</v>
+        <v>486</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
-        <v>539</v>
+        <v>487</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>540</v>
+        <v>488</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="M62" s="1">
         <v>1702</v>
@@ -7677,7 +7238,7 @@
         <v>298</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>541</v>
+        <v>489</v>
       </c>
       <c r="Q62" s="2">
         <v>38248</v>
@@ -7713,32 +7274,32 @@
         <v>299</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>542</v>
+        <v>490</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>543</v>
+        <v>491</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>544</v>
+        <v>492</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>545</v>
+        <v>493</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>546</v>
+        <v>494</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>547</v>
+        <v>495</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>549</v>
+        <v>497</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="M63" s="1">
         <v>1504</v>
@@ -7750,7 +7311,7 @@
         <v>299</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>550</v>
+        <v>498</v>
       </c>
       <c r="Q63" s="2">
         <v>38235</v>
@@ -7786,30 +7347,30 @@
         <v>303</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>551</v>
+        <v>499</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>552</v>
+        <v>500</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>554</v>
+        <v>502</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>558</v>
+        <v>506</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1">
@@ -7843,30 +7404,30 @@
         <v>307</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>559</v>
+        <v>507</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>560</v>
+        <v>508</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>561</v>
+        <v>509</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>562</v>
+        <v>510</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>563</v>
+        <v>511</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
-        <v>564</v>
+        <v>512</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="s">
-        <v>565</v>
+        <v>513</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1">
@@ -7900,30 +7461,30 @@
         <v>311</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>566</v>
+        <v>514</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>567</v>
+        <v>515</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>568</v>
+        <v>516</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>569</v>
+        <v>517</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>570</v>
+        <v>518</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>571</v>
+        <v>519</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>572</v>
+        <v>520</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="M66" s="1">
         <v>1501</v>
@@ -7935,7 +7496,7 @@
         <v>311</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="Q66" s="2">
         <v>38102</v>
@@ -7971,30 +7532,30 @@
         <v>314</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>574</v>
+        <v>522</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>575</v>
+        <v>523</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>576</v>
+        <v>524</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
-        <v>579</v>
+        <v>527</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
-        <v>580</v>
+        <v>528</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>581</v>
+        <v>529</v>
       </c>
       <c r="M67" s="1">
         <v>1401</v>
@@ -8006,7 +7567,7 @@
         <v>314</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="Q67" s="2">
         <v>38049</v>
@@ -8025,7 +7586,7 @@
       </c>
       <c r="V67" s="1"/>
       <c r="W67" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="X67" s="1"/>
       <c r="Y67" s="1">
@@ -8040,29 +7601,29 @@
         <v>319</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>583</v>
+        <v>531</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>586</v>
+        <v>534</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>588</v>
+        <v>536</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>42</v>
@@ -8077,7 +7638,7 @@
         <v>319</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>589</v>
+        <v>537</v>
       </c>
       <c r="Q68" s="2">
         <v>37962</v>
@@ -8101,7 +7662,7 @@
         <v>33</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="Y68" s="1">
         <v>319</v>
@@ -8115,29 +7676,29 @@
         <v>320</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>592</v>
+        <v>540</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>593</v>
+        <v>541</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>594</v>
+        <v>542</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
-        <v>595</v>
+        <v>543</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>596</v>
+        <v>544</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>42</v>
@@ -8152,7 +7713,7 @@
         <v>320</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>597</v>
+        <v>545</v>
       </c>
       <c r="Q69" s="2">
         <v>37949</v>
@@ -8188,29 +7749,29 @@
         <v>321</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>598</v>
+        <v>546</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>599</v>
+        <v>547</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>600</v>
+        <v>548</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>601</v>
+        <v>549</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>42</v>
@@ -8225,7 +7786,7 @@
         <v>321</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>602</v>
+        <v>550</v>
       </c>
       <c r="Q70" s="2">
         <v>38426</v>
@@ -8261,30 +7822,30 @@
         <v>323</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>603</v>
+        <v>551</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>604</v>
+        <v>552</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>605</v>
+        <v>553</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>606</v>
+        <v>554</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>607</v>
+        <v>555</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>608</v>
+        <v>556</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1" t="s">
-        <v>609</v>
+        <v>557</v>
       </c>
       <c r="M71" s="1">
         <v>1612</v>
@@ -8296,7 +7857,7 @@
         <v>323</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>610</v>
+        <v>558</v>
       </c>
       <c r="Q71" s="2">
         <v>38345</v>
@@ -8332,30 +7893,30 @@
         <v>324</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>611</v>
+        <v>559</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>599</v>
+        <v>547</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>612</v>
+        <v>560</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>613</v>
+        <v>561</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>614</v>
+        <v>562</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>616</v>
+        <v>564</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="M72" s="1">
         <v>1501</v>
@@ -8367,7 +7928,7 @@
         <v>324</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>617</v>
+        <v>565</v>
       </c>
       <c r="Q72" s="2">
         <v>37948</v>
@@ -8403,29 +7964,29 @@
         <v>328</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>618</v>
+        <v>566</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>599</v>
+        <v>547</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>619</v>
+        <v>567</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>620</v>
+        <v>568</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>621</v>
+        <v>569</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
-        <v>622</v>
+        <v>570</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>623</v>
+        <v>571</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>624</v>
+        <v>572</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>42</v>
@@ -8440,7 +8001,7 @@
         <v>328</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>625</v>
+        <v>573</v>
       </c>
       <c r="Q73" s="2">
         <v>38137</v>
@@ -8459,10 +8020,10 @@
       </c>
       <c r="V73" s="1"/>
       <c r="W73" s="1" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="X73" s="1" t="s">
-        <v>626</v>
+        <v>574</v>
       </c>
       <c r="Y73" s="1">
         <v>328</v>
@@ -8476,29 +8037,29 @@
         <v>333</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>627</v>
+        <v>575</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>628</v>
+        <v>576</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>629</v>
+        <v>577</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>630</v>
+        <v>578</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>631</v>
+        <v>579</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
-        <v>632</v>
+        <v>580</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>633</v>
+        <v>581</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>634</v>
+        <v>582</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>53</v>
@@ -8513,7 +8074,7 @@
         <v>333</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>635</v>
+        <v>583</v>
       </c>
       <c r="Q74" s="2">
         <v>38412</v>
@@ -8549,32 +8110,32 @@
         <v>334</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>636</v>
+        <v>584</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>637</v>
+        <v>585</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>638</v>
+        <v>586</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>639</v>
+        <v>587</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>640</v>
+        <v>588</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>641</v>
+        <v>589</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>642</v>
+        <v>590</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>643</v>
+        <v>591</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="M75" s="1">
         <v>1501</v>
@@ -8586,7 +8147,7 @@
         <v>334</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>644</v>
+        <v>592</v>
       </c>
       <c r="Q75" s="2">
         <v>38129</v>
@@ -8622,30 +8183,30 @@
         <v>335</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>645</v>
+        <v>593</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>646</v>
+        <v>594</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>647</v>
+        <v>595</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>648</v>
+        <v>596</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>649</v>
+        <v>597</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1" t="s">
-        <v>650</v>
+        <v>598</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>651</v>
+        <v>599</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1">
@@ -8679,29 +8240,29 @@
         <v>339</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>652</v>
+        <v>600</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>653</v>
+        <v>601</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>654</v>
+        <v>602</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>655</v>
+        <v>603</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>656</v>
+        <v>604</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>657</v>
+        <v>605</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>658</v>
+        <v>606</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>42</v>
@@ -8716,7 +8277,7 @@
         <v>339</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>659</v>
+        <v>607</v>
       </c>
       <c r="Q77" s="2">
         <v>37953</v>
@@ -8752,32 +8313,32 @@
         <v>344</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>660</v>
+        <v>608</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>662</v>
+        <v>610</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>663</v>
+        <v>611</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>665</v>
+        <v>613</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>666</v>
+        <v>614</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="M78" s="1">
         <v>1702</v>
@@ -8789,7 +8350,7 @@
         <v>344</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>667</v>
+        <v>615</v>
       </c>
       <c r="Q78" s="2">
         <v>38079</v>
@@ -8825,29 +8386,29 @@
         <v>347</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>668</v>
+        <v>616</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>669</v>
+        <v>617</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>671</v>
+        <v>619</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>672</v>
+        <v>620</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1" t="s">
-        <v>673</v>
+        <v>621</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>674</v>
+        <v>622</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>42</v>
@@ -8862,7 +8423,7 @@
         <v>347</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>675</v>
+        <v>623</v>
       </c>
       <c r="Q79" s="2">
         <v>37918</v>
@@ -8898,30 +8459,30 @@
         <v>348</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>676</v>
+        <v>624</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>677</v>
+        <v>625</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>680</v>
+        <v>628</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
-        <v>681</v>
+        <v>629</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>682</v>
+        <v>630</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1">
@@ -8955,27 +8516,27 @@
         <v>350</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>683</v>
+        <v>631</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>684</v>
+        <v>632</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>685</v>
+        <v>633</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>687</v>
+        <v>635</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
-        <v>688</v>
+        <v>636</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>689</v>
+        <v>637</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>31</v>
@@ -8990,7 +8551,7 @@
         <v>350</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>690</v>
+        <v>638</v>
       </c>
       <c r="Q81" s="2">
         <v>38381</v>
@@ -9026,27 +8587,27 @@
         <v>353</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>691</v>
+        <v>639</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>694</v>
+        <v>642</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>695</v>
+        <v>643</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
-        <v>696</v>
+        <v>644</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>697</v>
+        <v>645</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>31</v>
@@ -9061,7 +8622,7 @@
         <v>353</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>698</v>
+        <v>646</v>
       </c>
       <c r="Q82" s="2">
         <v>38512</v>
@@ -9097,32 +8658,32 @@
         <v>356</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>699</v>
+        <v>647</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>700</v>
+        <v>648</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>701</v>
+        <v>649</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>702</v>
+        <v>650</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>703</v>
+        <v>651</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
-        <v>704</v>
+        <v>652</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>705</v>
+        <v>653</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>706</v>
+        <v>654</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>707</v>
+        <v>655</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1">
@@ -9156,28 +8717,28 @@
         <v>357</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>708</v>
+        <v>656</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>709</v>
+        <v>657</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>710</v>
+        <v>658</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>711</v>
+        <v>659</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>712</v>
+        <v>660</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
-        <v>713</v>
+        <v>661</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1" t="s">
-        <v>609</v>
+        <v>557</v>
       </c>
       <c r="M84" s="1">
         <v>1612</v>
@@ -9189,7 +8750,7 @@
         <v>357</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>714</v>
+        <v>662</v>
       </c>
       <c r="Q84" s="2">
         <v>38122</v>
@@ -9225,30 +8786,30 @@
         <v>361</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>715</v>
+        <v>663</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>717</v>
+        <v>665</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>718</v>
+        <v>666</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>719</v>
+        <v>667</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>721</v>
+        <v>669</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1">
@@ -9282,29 +8843,29 @@
         <v>362</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>722</v>
+        <v>670</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
-        <v>726</v>
+        <v>674</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>42</v>
@@ -9319,7 +8880,7 @@
         <v>362</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="Q86" s="2">
         <v>38251</v>
@@ -9338,10 +8899,10 @@
       </c>
       <c r="V86" s="1"/>
       <c r="W86" s="1" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>626</v>
+        <v>574</v>
       </c>
       <c r="Y86" s="1">
         <v>362</v>
@@ -9355,29 +8916,29 @@
         <v>363</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>730</v>
+        <v>678</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>731</v>
+        <v>679</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>732</v>
+        <v>680</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1" t="s">
-        <v>733</v>
+        <v>681</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>734</v>
+        <v>682</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>42</v>
@@ -9392,7 +8953,7 @@
         <v>363</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>736</v>
+        <v>684</v>
       </c>
       <c r="Q87" s="2">
         <v>37960</v>
@@ -9416,7 +8977,7 @@
         <v>33</v>
       </c>
       <c r="X87" s="1" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="Y87" s="1">
         <v>363</v>
@@ -9430,30 +8991,30 @@
         <v>369</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>737</v>
+        <v>685</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>738</v>
+        <v>686</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>739</v>
+        <v>687</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>741</v>
+        <v>689</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1" t="s">
-        <v>742</v>
+        <v>690</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1">
@@ -9487,30 +9048,30 @@
         <v>376</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>743</v>
+        <v>691</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>744</v>
+        <v>692</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>745</v>
+        <v>693</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>746</v>
+        <v>694</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>747</v>
+        <v>695</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1" t="s">
-        <v>748</v>
+        <v>696</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>749</v>
+        <v>697</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="M89" s="1">
         <v>1702</v>
@@ -9546,29 +9107,29 @@
         <v>379</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>750</v>
+        <v>698</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>751</v>
+        <v>699</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>522</v>
+        <v>470</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>752</v>
+        <v>700</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>42</v>
@@ -9583,7 +9144,7 @@
         <v>379</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>753</v>
+        <v>701</v>
       </c>
       <c r="Q90" s="2">
         <v>38201</v>
@@ -9619,30 +9180,30 @@
         <v>381</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>754</v>
+        <v>702</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>755</v>
+        <v>703</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>756</v>
+        <v>704</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>757</v>
+        <v>705</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>758</v>
+        <v>706</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1" t="s">
-        <v>759</v>
+        <v>707</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1" t="s">
-        <v>760</v>
+        <v>708</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>581</v>
+        <v>529</v>
       </c>
       <c r="M91" s="1">
         <v>1401</v>
@@ -9654,7 +9215,7 @@
         <v>381</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>761</v>
+        <v>709</v>
       </c>
       <c r="Q91" s="2">
         <v>37855</v>
@@ -9690,30 +9251,30 @@
         <v>382</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>762</v>
+        <v>710</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>763</v>
+        <v>711</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>764</v>
+        <v>712</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>765</v>
+        <v>713</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>766</v>
+        <v>714</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
-        <v>767</v>
+        <v>715</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
-        <v>768</v>
+        <v>716</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
       <c r="M92" s="1">
         <v>1401</v>
@@ -9725,7 +9286,7 @@
         <v>382</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>770</v>
+        <v>718</v>
       </c>
       <c r="Q92" s="2">
         <v>38318</v>
@@ -9761,32 +9322,32 @@
         <v>385</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>771</v>
+        <v>719</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>772</v>
+        <v>720</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>773</v>
+        <v>721</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>774</v>
+        <v>722</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>775</v>
+        <v>723</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>776</v>
+        <v>724</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>777</v>
+        <v>725</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>778</v>
+        <v>726</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>779</v>
+        <v>727</v>
       </c>
       <c r="M93" s="1">
         <v>1621</v>
@@ -9798,7 +9359,7 @@
         <v>385</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>780</v>
+        <v>728</v>
       </c>
       <c r="Q93" s="2">
         <v>37689</v>
@@ -9834,30 +9395,30 @@
         <v>386</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>781</v>
+        <v>729</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>782</v>
+        <v>730</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>783</v>
+        <v>731</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>784</v>
+        <v>732</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>785</v>
+        <v>733</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1" t="s">
-        <v>786</v>
+        <v>734</v>
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1" t="s">
-        <v>787</v>
+        <v>735</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="M94" s="1">
         <v>1401</v>
@@ -9869,7 +9430,7 @@
         <v>386</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>788</v>
+        <v>736</v>
       </c>
       <c r="Q94" s="2">
         <v>38186</v>
@@ -9905,32 +9466,32 @@
         <v>398</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>789</v>
+        <v>737</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>790</v>
+        <v>738</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>791</v>
+        <v>739</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>792</v>
+        <v>740</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>793</v>
+        <v>741</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1" t="s">
-        <v>794</v>
+        <v>742</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>795</v>
+        <v>743</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>796</v>
+        <v>744</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="M95" s="1">
         <v>1621</v>
@@ -9942,7 +9503,7 @@
         <v>398</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>797</v>
+        <v>745</v>
       </c>
       <c r="Q95" s="2">
         <v>38320</v>
@@ -9978,27 +9539,27 @@
         <v>406</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>798</v>
+        <v>746</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>799</v>
+        <v>747</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>800</v>
+        <v>748</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>801</v>
+        <v>749</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>802</v>
+        <v>750</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>803</v>
+        <v>751</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>31</v>
@@ -10013,7 +9574,7 @@
         <v>406</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>804</v>
+        <v>752</v>
       </c>
       <c r="Q96" s="2">
         <v>38155</v>
@@ -10049,30 +9610,30 @@
         <v>409</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>805</v>
+        <v>753</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>806</v>
+        <v>754</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>807</v>
+        <v>755</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>808</v>
+        <v>756</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>809</v>
+        <v>757</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
-        <v>810</v>
+        <v>758</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>811</v>
+        <v>759</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1">
@@ -10106,30 +9667,30 @@
         <v>412</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>812</v>
+        <v>760</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>813</v>
+        <v>761</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>814</v>
+        <v>762</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>815</v>
+        <v>763</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>816</v>
+        <v>764</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>817</v>
+        <v>765</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>818</v>
+        <v>766</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1" t="s">
-        <v>609</v>
+        <v>557</v>
       </c>
       <c r="M98" s="1">
         <v>1612</v>
@@ -10141,7 +9702,7 @@
         <v>412</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>819</v>
+        <v>767</v>
       </c>
       <c r="Q98" s="2">
         <v>38091</v>
@@ -10177,30 +9738,30 @@
         <v>415</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>820</v>
+        <v>768</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>821</v>
+        <v>769</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>822</v>
+        <v>770</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>823</v>
+        <v>771</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
-        <v>824</v>
+        <v>772</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1" t="s">
-        <v>825</v>
+        <v>773</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M99" s="1">
         <v>1504</v>
@@ -10212,7 +9773,7 @@
         <v>415</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>826</v>
+        <v>774</v>
       </c>
       <c r="Q99" s="2">
         <v>38258</v>
@@ -10248,31 +9809,31 @@
         <v>424</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>827</v>
+        <v>775</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>520</v>
+        <v>468</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>828</v>
+        <v>776</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>829</v>
+        <v>777</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>830</v>
+        <v>778</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>831</v>
+        <v>779</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>42</v>
@@ -10287,7 +9848,7 @@
         <v>424</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>832</v>
+        <v>780</v>
       </c>
       <c r="Q100" s="2">
         <v>37925</v>
@@ -10323,30 +9884,30 @@
         <v>443</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>833</v>
+        <v>781</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>834</v>
+        <v>782</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>835</v>
+        <v>783</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>836</v>
+        <v>784</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>837</v>
+        <v>785</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>838</v>
+        <v>786</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1" t="s">
-        <v>839</v>
+        <v>787</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="1">
@@ -10380,29 +9941,29 @@
         <v>447</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>840</v>
+        <v>788</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>841</v>
+        <v>789</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>842</v>
+        <v>790</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>843</v>
+        <v>791</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>844</v>
+        <v>792</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>845</v>
+        <v>793</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>42</v>
@@ -10417,7 +9978,7 @@
         <v>447</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>846</v>
+        <v>794</v>
       </c>
       <c r="Q102" s="2">
         <v>38338</v>
@@ -10453,30 +10014,30 @@
         <v>448</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>847</v>
+        <v>795</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>848</v>
+        <v>796</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>849</v>
+        <v>797</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>850</v>
+        <v>798</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>851</v>
+        <v>799</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="s">
-        <v>852</v>
+        <v>800</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
-        <v>853</v>
+        <v>801</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="M103" s="1">
         <v>1504</v>
@@ -10488,7 +10049,7 @@
         <v>448</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>854</v>
+        <v>802</v>
       </c>
       <c r="Q103" s="2">
         <v>38260</v>
@@ -10524,29 +10085,29 @@
         <v>450</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>855</v>
+        <v>803</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>856</v>
+        <v>804</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>857</v>
+        <v>805</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>858</v>
+        <v>806</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1" t="s">
-        <v>859</v>
+        <v>807</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>42</v>
@@ -10561,7 +10122,7 @@
         <v>450</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>860</v>
+        <v>808</v>
       </c>
       <c r="Q104" s="2">
         <v>38159</v>
@@ -10580,10 +10141,10 @@
       </c>
       <c r="V104" s="1"/>
       <c r="W104" s="1" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="X104" s="1" t="s">
-        <v>626</v>
+        <v>574</v>
       </c>
       <c r="Y104" s="1">
         <v>450</v>
@@ -10597,30 +10158,30 @@
         <v>452</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>861</v>
+        <v>809</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>862</v>
+        <v>810</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>863</v>
+        <v>811</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>864</v>
+        <v>812</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>865</v>
+        <v>813</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1" t="s">
-        <v>866</v>
+        <v>814</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
-        <v>867</v>
+        <v>815</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
       <c r="M105" s="1">
         <v>1401</v>
@@ -10632,7 +10193,7 @@
         <v>452</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>868</v>
+        <v>816</v>
       </c>
       <c r="Q105" s="2">
         <v>38475</v>
@@ -10668,29 +10229,29 @@
         <v>455</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>869</v>
+        <v>817</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>870</v>
+        <v>818</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>871</v>
+        <v>819</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>42</v>
@@ -10705,7 +10266,7 @@
         <v>455</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>872</v>
+        <v>820</v>
       </c>
       <c r="Q106" s="2">
         <v>38119</v>
@@ -10741,31 +10302,31 @@
         <v>456</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>873</v>
+        <v>821</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>874</v>
+        <v>822</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>875</v>
+        <v>823</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>876</v>
+        <v>824</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>877</v>
+        <v>825</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>878</v>
+        <v>826</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>42</v>
@@ -10780,7 +10341,7 @@
         <v>456</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>879</v>
+        <v>827</v>
       </c>
       <c r="Q107" s="2">
         <v>38107</v>
@@ -10804,7 +10365,7 @@
         <v>33</v>
       </c>
       <c r="X107" s="1" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="Y107" s="1">
         <v>456</v>
@@ -10818,30 +10379,30 @@
         <v>458</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>880</v>
+        <v>828</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>881</v>
+        <v>829</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>882</v>
+        <v>830</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>883</v>
+        <v>831</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>884</v>
+        <v>832</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1" t="s">
-        <v>666</v>
+        <v>614</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="M108" s="1">
         <v>1702</v>
@@ -10853,7 +10414,7 @@
         <v>458</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>885</v>
+        <v>833</v>
       </c>
       <c r="Q108" s="2">
         <v>37785</v>
@@ -10889,30 +10450,30 @@
         <v>459</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>886</v>
+        <v>834</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>887</v>
+        <v>835</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>888</v>
+        <v>836</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>889</v>
+        <v>837</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>890</v>
+        <v>838</v>
       </c>
       <c r="H109" s="1"/>
       <c r="I109" s="1" t="s">
-        <v>891</v>
+        <v>839</v>
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1" t="s">
-        <v>892</v>
+        <v>840</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M109" s="1"/>
       <c r="N109" s="1">
@@ -10946,29 +10507,29 @@
         <v>462</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>893</v>
+        <v>841</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>894</v>
+        <v>842</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>895</v>
+        <v>843</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>896</v>
+        <v>844</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>897</v>
+        <v>845</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="1" t="s">
-        <v>595</v>
+        <v>543</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>596</v>
+        <v>544</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>42</v>
@@ -10983,7 +10544,7 @@
         <v>462</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>898</v>
+        <v>846</v>
       </c>
       <c r="Q110" s="2">
         <v>38318</v>
@@ -11019,30 +10580,30 @@
         <v>465</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>899</v>
+        <v>847</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>900</v>
+        <v>848</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>901</v>
+        <v>849</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>902</v>
+        <v>850</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>903</v>
+        <v>851</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1" t="s">
-        <v>666</v>
+        <v>614</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="M111" s="1"/>
       <c r="N111" s="1">
@@ -11076,29 +10637,29 @@
         <v>471</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>904</v>
+        <v>852</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>905</v>
+        <v>853</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>906</v>
+        <v>854</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>907</v>
+        <v>855</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>908</v>
+        <v>856</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1" t="s">
-        <v>909</v>
+        <v>857</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>910</v>
+        <v>858</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>53</v>
@@ -11113,7 +10674,7 @@
         <v>471</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>911</v>
+        <v>859</v>
       </c>
       <c r="Q112" s="2">
         <v>37965</v>
@@ -11134,10 +10695,10 @@
         <v>38484</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="X112" s="1" t="s">
-        <v>912</v>
+        <v>860</v>
       </c>
       <c r="Y112" s="1">
         <v>471</v>
@@ -11151,30 +10712,30 @@
         <v>473</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>913</v>
+        <v>861</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>914</v>
+        <v>862</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>915</v>
+        <v>863</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>916</v>
+        <v>864</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>917</v>
+        <v>865</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>918</v>
+        <v>866</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="M113" s="1">
         <v>1401</v>
@@ -11186,7 +10747,7 @@
         <v>473</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>919</v>
+        <v>867</v>
       </c>
       <c r="Q113" s="2">
         <v>37921</v>
@@ -11210,7 +10771,7 @@
         <v>33</v>
       </c>
       <c r="X113" s="1" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="Y113" s="1">
         <v>473</v>
@@ -11224,29 +10785,29 @@
         <v>475</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>920</v>
+        <v>868</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>921</v>
+        <v>869</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>922</v>
+        <v>870</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="1" t="s">
-        <v>923</v>
+        <v>871</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>624</v>
+        <v>572</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>42</v>
@@ -11261,7 +10822,7 @@
         <v>475</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>924</v>
+        <v>872</v>
       </c>
       <c r="Q114" s="2">
         <v>38030</v>
@@ -11285,7 +10846,7 @@
         <v>33</v>
       </c>
       <c r="X114" s="1" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="Y114" s="1">
         <v>475</v>
@@ -11299,30 +10860,30 @@
         <v>477</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>925</v>
+        <v>873</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>926</v>
+        <v>874</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>927</v>
+        <v>875</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>928</v>
+        <v>876</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>929</v>
+        <v>877</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1" t="s">
-        <v>930</v>
+        <v>878</v>
       </c>
       <c r="J115" s="1"/>
       <c r="K115" s="1" t="s">
-        <v>931</v>
+        <v>879</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="M115" s="1"/>
       <c r="N115" s="1">
@@ -11356,30 +10917,30 @@
         <v>480</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>932</v>
+        <v>880</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>933</v>
+        <v>881</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>835</v>
+        <v>783</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>934</v>
+        <v>882</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>935</v>
+        <v>883</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1" t="s">
-        <v>936</v>
+        <v>884</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1" t="s">
-        <v>937</v>
+        <v>885</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>938</v>
+        <v>886</v>
       </c>
       <c r="M116" s="1"/>
       <c r="N116" s="1">
@@ -11413,30 +10974,30 @@
         <v>481</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>939</v>
+        <v>887</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>940</v>
+        <v>888</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>941</v>
+        <v>889</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>942</v>
+        <v>890</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>943</v>
+        <v>891</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1" t="s">
-        <v>944</v>
+        <v>892</v>
       </c>
       <c r="J117" s="1"/>
       <c r="K117" s="1" t="s">
-        <v>945</v>
+        <v>893</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>946</v>
+        <v>894</v>
       </c>
       <c r="M117" s="1"/>
       <c r="N117" s="1">
@@ -11470,30 +11031,30 @@
         <v>484</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>947</v>
+        <v>895</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>948</v>
+        <v>896</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>949</v>
+        <v>897</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>950</v>
+        <v>898</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>951</v>
+        <v>899</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1" t="s">
-        <v>952</v>
+        <v>900</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1" t="s">
-        <v>953</v>
+        <v>901</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="M118" s="1">
         <v>1702</v>
@@ -11505,7 +11066,7 @@
         <v>484</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>954</v>
+        <v>902</v>
       </c>
       <c r="Q118" s="2">
         <v>37954</v>
@@ -11529,7 +11090,7 @@
         <v>33</v>
       </c>
       <c r="X118" s="1" t="s">
-        <v>955</v>
+        <v>903</v>
       </c>
       <c r="Y118" s="1">
         <v>484</v>
@@ -11543,29 +11104,29 @@
         <v>486</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>956</v>
+        <v>904</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>957</v>
+        <v>905</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>959</v>
+        <v>907</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>960</v>
+        <v>908</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1" t="s">
-        <v>657</v>
+        <v>605</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>658</v>
+        <v>606</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>42</v>
@@ -11580,7 +11141,7 @@
         <v>486</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>961</v>
+        <v>909</v>
       </c>
       <c r="Q119" s="2">
         <v>37700</v>
@@ -11604,7 +11165,7 @@
         <v>33</v>
       </c>
       <c r="X119" s="1" t="s">
-        <v>962</v>
+        <v>910</v>
       </c>
       <c r="Y119" s="1">
         <v>486</v>
@@ -11618,29 +11179,29 @@
         <v>487</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>963</v>
+        <v>911</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>856</v>
+        <v>804</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>964</v>
+        <v>912</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>965</v>
+        <v>913</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
-        <v>966</v>
+        <v>914</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>42</v>
@@ -11655,7 +11216,7 @@
         <v>487</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>967</v>
+        <v>915</v>
       </c>
       <c r="Q120" s="2">
         <v>38046</v>
@@ -11691,30 +11252,30 @@
         <v>489</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>968</v>
+        <v>916</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>969</v>
+        <v>917</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>970</v>
+        <v>918</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>971</v>
+        <v>919</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>972</v>
+        <v>920</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="J121" s="1"/>
       <c r="K121" s="1" t="s">
-        <v>973</v>
+        <v>921</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="M121" s="1">
         <v>1501</v>
@@ -11726,7 +11287,7 @@
         <v>489</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>974</v>
+        <v>922</v>
       </c>
       <c r="Q121" s="2">
         <v>38017</v>
@@ -11750,7 +11311,7 @@
         <v>33</v>
       </c>
       <c r="X121" s="1" t="s">
-        <v>975</v>
+        <v>923</v>
       </c>
       <c r="Y121" s="1">
         <v>489</v>
@@ -11764,29 +11325,29 @@
         <v>495</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>976</v>
+        <v>924</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>977</v>
+        <v>925</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>978</v>
+        <v>926</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1" t="s">
-        <v>726</v>
+        <v>674</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>42</v>
@@ -11801,7 +11362,7 @@
         <v>495</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>979</v>
+        <v>927</v>
       </c>
       <c r="Q122" s="2">
         <v>38121</v>
@@ -11837,28 +11398,28 @@
         <v>496</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>980</v>
+        <v>928</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>981</v>
+        <v>929</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>982</v>
+        <v>930</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>983</v>
+        <v>931</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>984</v>
+        <v>932</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1" t="s">
-        <v>608</v>
+        <v>556</v>
       </c>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1" t="s">
-        <v>609</v>
+        <v>557</v>
       </c>
       <c r="M123" s="1">
         <v>1612</v>
@@ -11870,7 +11431,7 @@
         <v>496</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>985</v>
+        <v>933</v>
       </c>
       <c r="Q123" s="2">
         <v>38352</v>
